--- a/Nodejs/json-to-xls/Example.xlsx
+++ b/Nodejs/json-to-xls/Example.xlsx
@@ -418,7 +418,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Back to the Future</v>
+        <v>De volta para o futuro</v>
       </c>
       <c r="B2" t="str">
         <v>1985</v>
@@ -427,12 +427,12 @@
         <v>Marty McFly</v>
       </c>
       <c r="D2" t="str">
-        <v>Science fiction</v>
+        <v>Ficção Científica</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Ferris Bueller's Day Off</v>
+        <v>Vivendo a vida adoidado</v>
       </c>
       <c r="B3" t="str">
         <v>1986</v>
@@ -441,7 +441,7 @@
         <v>Matthew Broderick</v>
       </c>
       <c r="D3" t="str">
-        <v>Comedy</v>
+        <v>Comédia</v>
       </c>
     </row>
   </sheetData>
